--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna1-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna1-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Epha3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.447252</v>
+        <v>14.02618833333333</v>
       </c>
       <c r="H2">
-        <v>61.341756</v>
+        <v>42.078565</v>
       </c>
       <c r="I2">
-        <v>0.8699145605694745</v>
+        <v>0.806325281849088</v>
       </c>
       <c r="J2">
-        <v>0.8770588936480435</v>
+        <v>0.8172785134657441</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N2">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O2">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P2">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q2">
-        <v>0.6234980552359999</v>
+        <v>1.503284787001667</v>
       </c>
       <c r="R2">
-        <v>5.611482497123999</v>
+        <v>13.529563083015</v>
       </c>
       <c r="S2">
-        <v>0.0008861278356097405</v>
+        <v>0.002843718457515444</v>
       </c>
       <c r="T2">
-        <v>0.0008955098881877029</v>
+        <v>0.002901074524456291</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.447252</v>
+        <v>14.02618833333333</v>
       </c>
       <c r="H3">
-        <v>61.341756</v>
+        <v>42.078565</v>
       </c>
       <c r="I3">
-        <v>0.8699145605694745</v>
+        <v>0.806325281849088</v>
       </c>
       <c r="J3">
-        <v>0.8770588936480435</v>
+        <v>0.8172785134657441</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O3">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P3">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q3">
-        <v>606.3267665309306</v>
+        <v>415.921582954221</v>
       </c>
       <c r="R3">
-        <v>5456.940898778375</v>
+        <v>3743.29424658799</v>
       </c>
       <c r="S3">
-        <v>0.8617236586166084</v>
+        <v>0.7867863045996807</v>
       </c>
       <c r="T3">
-        <v>0.8708473271753914</v>
+        <v>0.8026553045126286</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.447252</v>
+        <v>14.02618833333333</v>
       </c>
       <c r="H4">
-        <v>61.341756</v>
+        <v>42.078565</v>
       </c>
       <c r="I4">
-        <v>0.8699145605694745</v>
+        <v>0.806325281849088</v>
       </c>
       <c r="J4">
-        <v>0.8770588936480435</v>
+        <v>0.8172785134657441</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N4">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O4">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P4">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q4">
-        <v>4.315474323608</v>
+        <v>0.5712539230438889</v>
       </c>
       <c r="R4">
-        <v>25.892845941648</v>
+        <v>5.141285307395</v>
       </c>
       <c r="S4">
-        <v>0.006133237930566957</v>
+        <v>0.001080623803908828</v>
       </c>
       <c r="T4">
-        <v>0.004132116528199203</v>
+        <v>0.001102419326975138</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.447252</v>
+        <v>14.02618833333333</v>
       </c>
       <c r="H5">
-        <v>61.341756</v>
+        <v>42.078565</v>
       </c>
       <c r="I5">
-        <v>0.8699145605694745</v>
+        <v>0.806325281849088</v>
       </c>
       <c r="J5">
-        <v>0.8770588936480435</v>
+        <v>0.8172785134657441</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04031433333333333</v>
+        <v>0.5885005</v>
       </c>
       <c r="N5">
-        <v>0.120943</v>
+        <v>1.177001</v>
       </c>
       <c r="O5">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="P5">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
       <c r="Q5">
-        <v>0.8243173328786666</v>
+        <v>8.254418847260832</v>
       </c>
       <c r="R5">
-        <v>7.418855995908</v>
+        <v>49.52651308356499</v>
       </c>
       <c r="S5">
-        <v>0.001171536186689282</v>
+        <v>0.01561463498798313</v>
       </c>
       <c r="T5">
-        <v>0.001183940056265212</v>
+        <v>0.01061971510168406</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,40 +791,40 @@
         <v>7.449742</v>
       </c>
       <c r="I6">
-        <v>0.105648084777455</v>
+        <v>0.1427547569137158</v>
       </c>
       <c r="J6">
-        <v>0.1065157390747562</v>
+        <v>0.1446939568272663</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N6">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O6">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P6">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q6">
-        <v>0.07572166093533332</v>
+        <v>0.2661469994446667</v>
       </c>
       <c r="R6">
-        <v>0.6814949484179998</v>
+        <v>2.395322995002</v>
       </c>
       <c r="S6">
-        <v>0.0001076171303982719</v>
+        <v>0.0005034622456618476</v>
       </c>
       <c r="T6">
-        <v>0.0001087565479124405</v>
+        <v>0.0005136167721017117</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>7.449742</v>
       </c>
       <c r="I7">
-        <v>0.105648084777455</v>
+        <v>0.1427547569137158</v>
       </c>
       <c r="J7">
-        <v>0.1065157390747562</v>
+        <v>0.1446939568272663</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O7">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P7">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q7">
         <v>73.6362679012591</v>
@@ -883,10 +883,10 @@
         <v>662.7264111113319</v>
       </c>
       <c r="S7">
-        <v>0.104653328346026</v>
+        <v>0.1392955054052113</v>
       </c>
       <c r="T7">
-        <v>0.1057613660235983</v>
+        <v>0.1421050107947008</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,40 +915,40 @@
         <v>7.449742</v>
       </c>
       <c r="I8">
-        <v>0.105648084777455</v>
+        <v>0.1427547569137158</v>
       </c>
       <c r="J8">
-        <v>0.1065157390747562</v>
+        <v>0.1446939568272663</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N8">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O8">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P8">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q8">
-        <v>0.5240992826893334</v>
+        <v>0.1011368696428889</v>
       </c>
       <c r="R8">
-        <v>3.144595696136</v>
+        <v>0.910231826786</v>
       </c>
       <c r="S8">
-        <v>0.0007448603233226279</v>
+        <v>0.0001913175636616734</v>
       </c>
       <c r="T8">
-        <v>0.0005018311189040592</v>
+        <v>0.0001951763222386129</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +977,40 @@
         <v>7.449742</v>
       </c>
       <c r="I9">
-        <v>0.105648084777455</v>
+        <v>0.1427547569137158</v>
       </c>
       <c r="J9">
-        <v>0.1065157390747562</v>
+        <v>0.1446939568272663</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04031433333333333</v>
+        <v>0.5885005</v>
       </c>
       <c r="N9">
-        <v>0.120943</v>
+        <v>1.177001</v>
       </c>
       <c r="O9">
-        <v>0.001346725574891351</v>
+        <v>0.01936518095051565</v>
       </c>
       <c r="P9">
-        <v>0.001349898011227873</v>
+        <v>0.01299399767240936</v>
       </c>
       <c r="Q9">
-        <v>0.1001104607451111</v>
+        <v>1.461392297290333</v>
       </c>
       <c r="R9">
-        <v>0.900994146706</v>
+        <v>8.768353783741999</v>
       </c>
       <c r="S9">
-        <v>0.0001422789777080883</v>
+        <v>0.002764471699180982</v>
       </c>
       <c r="T9">
-        <v>0.0001437853843414805</v>
+        <v>0.0018801529382252</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.5743975</v>
+        <v>0.1863673333333333</v>
       </c>
       <c r="H10">
-        <v>1.148795</v>
+        <v>0.559102</v>
       </c>
       <c r="I10">
-        <v>0.02443735465307048</v>
+        <v>0.01071372271683668</v>
       </c>
       <c r="J10">
-        <v>0.01642536727720028</v>
+        <v>0.01085925937435662</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.030493</v>
+        <v>0.107177</v>
       </c>
       <c r="N10">
-        <v>0.09147899999999999</v>
+        <v>0.321531</v>
       </c>
       <c r="O10">
-        <v>0.001018637778668347</v>
+        <v>0.003526763356587491</v>
       </c>
       <c r="P10">
-        <v>0.001021037349570579</v>
+        <v>0.003549676734010809</v>
       </c>
       <c r="Q10">
-        <v>0.0175151029675</v>
+        <v>0.01997429168466667</v>
       </c>
       <c r="R10">
-        <v>0.105090617805</v>
+        <v>0.179768625162</v>
       </c>
       <c r="S10">
-        <v>2.489281266033431E-05</v>
+        <v>3.778476469037858E-05</v>
       </c>
       <c r="T10">
-        <v>1.67709134704359E-05</v>
+        <v>3.854686034974248E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,19 +1092,19 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.5743975</v>
+        <v>0.1863673333333333</v>
       </c>
       <c r="H11">
-        <v>1.148795</v>
+        <v>0.559102</v>
       </c>
       <c r="I11">
-        <v>0.02443735465307048</v>
+        <v>0.01071372271683668</v>
       </c>
       <c r="J11">
-        <v>0.01642536727720028</v>
+        <v>0.01085925937435662</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>88.95964599999999</v>
       </c>
       <c r="O11">
-        <v>0.990584245483253</v>
+        <v>0.9757678722356318</v>
       </c>
       <c r="P11">
-        <v>0.9929177316168408</v>
+        <v>0.9821074349659524</v>
       </c>
       <c r="Q11">
-        <v>17.03273275442833</v>
+        <v>5.526390666432444</v>
       </c>
       <c r="R11">
-        <v>102.19639652657</v>
+        <v>49.737515997892</v>
       </c>
       <c r="S11">
-        <v>0.02420725852061849</v>
+        <v>0.01045410641913028</v>
       </c>
       <c r="T11">
-        <v>0.01630903841785119</v>
+        <v>0.01066495936977936</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1154,49 +1154,49 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.5743975</v>
+        <v>0.1863673333333333</v>
       </c>
       <c r="H12">
-        <v>1.148795</v>
+        <v>0.559102</v>
       </c>
       <c r="I12">
-        <v>0.02443735465307048</v>
+        <v>0.01071372271683668</v>
       </c>
       <c r="J12">
-        <v>0.01642536727720028</v>
+        <v>0.01085925937435662</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.211054</v>
+        <v>0.04072766666666667</v>
       </c>
       <c r="N12">
-        <v>0.422108</v>
+        <v>0.122183</v>
       </c>
       <c r="O12">
-        <v>0.007050391163187266</v>
+        <v>0.001340183457265176</v>
       </c>
       <c r="P12">
-        <v>0.00471133302236074</v>
+        <v>0.001348890627627329</v>
       </c>
       <c r="Q12">
-        <v>0.121228889965</v>
+        <v>0.007590306629555556</v>
       </c>
       <c r="R12">
-        <v>0.48491555986</v>
+        <v>0.06831275966599999</v>
       </c>
       <c r="S12">
-        <v>0.0001722929092976814</v>
+        <v>1.435835395083064E-05</v>
       </c>
       <c r="T12">
-        <v>7.738537525747721E-05</v>
+        <v>1.464795319304386E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1863673333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.559102</v>
+      </c>
+      <c r="I13">
+        <v>0.01071372271683668</v>
+      </c>
+      <c r="J13">
+        <v>0.01085925937435662</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5885005</v>
+      </c>
+      <c r="N13">
+        <v>1.177001</v>
+      </c>
+      <c r="O13">
+        <v>0.01936518095051565</v>
+      </c>
+      <c r="P13">
+        <v>0.01299399767240936</v>
+      </c>
+      <c r="Q13">
+        <v>0.1096772688503333</v>
+      </c>
+      <c r="R13">
+        <v>0.658063613102</v>
+      </c>
+      <c r="S13">
+        <v>0.0002074731790651925</v>
+      </c>
+      <c r="T13">
+        <v>0.0001411051910344795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.5743975</v>
-      </c>
-      <c r="H13">
-        <v>1.148795</v>
-      </c>
-      <c r="I13">
-        <v>0.02443735465307048</v>
-      </c>
-      <c r="J13">
-        <v>0.01642536727720028</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.04031433333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.120943</v>
-      </c>
-      <c r="O13">
-        <v>0.001346725574891351</v>
-      </c>
-      <c r="P13">
-        <v>0.001349898011227873</v>
-      </c>
-      <c r="Q13">
-        <v>0.02315645228083333</v>
-      </c>
-      <c r="R13">
-        <v>0.138938713685</v>
-      </c>
-      <c r="S13">
-        <v>3.291041049398018E-05</v>
-      </c>
-      <c r="T13">
-        <v>2.217257062118004E-05</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6993955000000001</v>
+      </c>
+      <c r="H14">
+        <v>1.398791</v>
+      </c>
+      <c r="I14">
+        <v>0.04020623852035952</v>
+      </c>
+      <c r="J14">
+        <v>0.02716827033263282</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.107177</v>
+      </c>
+      <c r="N14">
+        <v>0.321531</v>
+      </c>
+      <c r="O14">
+        <v>0.003526763356587491</v>
+      </c>
+      <c r="P14">
+        <v>0.003549676734010809</v>
+      </c>
+      <c r="Q14">
+        <v>0.07495911150350001</v>
+      </c>
+      <c r="R14">
+        <v>0.449754669021</v>
+      </c>
+      <c r="S14">
+        <v>0.0001417978887198204</v>
+      </c>
+      <c r="T14">
+        <v>9.643857710306282E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6993955000000001</v>
+      </c>
+      <c r="H15">
+        <v>1.398791</v>
+      </c>
+      <c r="I15">
+        <v>0.04020623852035952</v>
+      </c>
+      <c r="J15">
+        <v>0.02716827033263282</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>29.65321533333333</v>
+      </c>
+      <c r="N15">
+        <v>88.95964599999999</v>
+      </c>
+      <c r="O15">
+        <v>0.9757678722356318</v>
+      </c>
+      <c r="P15">
+        <v>0.9821074349659524</v>
+      </c>
+      <c r="Q15">
+        <v>20.73932536466434</v>
+      </c>
+      <c r="R15">
+        <v>124.435952187986</v>
+      </c>
+      <c r="S15">
+        <v>0.0392319558116095</v>
+      </c>
+      <c r="T15">
+        <v>0.02668216028884361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6993955000000001</v>
+      </c>
+      <c r="H16">
+        <v>1.398791</v>
+      </c>
+      <c r="I16">
+        <v>0.04020623852035952</v>
+      </c>
+      <c r="J16">
+        <v>0.02716827033263282</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.04072766666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.122183</v>
+      </c>
+      <c r="O16">
+        <v>0.001340183457265176</v>
+      </c>
+      <c r="P16">
+        <v>0.001348890627627329</v>
+      </c>
+      <c r="Q16">
+        <v>0.02848474679216667</v>
+      </c>
+      <c r="R16">
+        <v>0.170908480753</v>
+      </c>
+      <c r="S16">
+        <v>5.388373574384372E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.664702522053403E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6993955000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.398791</v>
+      </c>
+      <c r="I17">
+        <v>0.04020623852035952</v>
+      </c>
+      <c r="J17">
+        <v>0.02716827033263282</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5885005</v>
+      </c>
+      <c r="N17">
+        <v>1.177001</v>
+      </c>
+      <c r="O17">
+        <v>0.01936518095051565</v>
+      </c>
+      <c r="P17">
+        <v>0.01299399767240936</v>
+      </c>
+      <c r="Q17">
+        <v>0.41159460144775</v>
+      </c>
+      <c r="R17">
+        <v>1.646378405791</v>
+      </c>
+      <c r="S17">
+        <v>0.0007786010842863549</v>
+      </c>
+      <c r="T17">
+        <v>0.0003530244414656193</v>
       </c>
     </row>
   </sheetData>
